--- a/medicine/Psychotrope/Estivales_(Montpellier)/Estivales_(Montpellier).xlsx
+++ b/medicine/Psychotrope/Estivales_(Montpellier)/Estivales_(Montpellier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Estivales de Montpellier est une manifestation nocturne annuelle fondée en 2001 par la municipalité de Montpellier.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette manifestation a été créée pour la première fois en juin 2001[1] sous l'impulsion de Georges Frêche, maire de Montpellier. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette manifestation a été créée pour la première fois en juin 2001 sous l'impulsion de Georges Frêche, maire de Montpellier. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Située sur l'Esplanade Charles-de-Gaulle, elle présente entre juillet et août une centaine de stands d'artisans d'art et des stands festifs et culturels (restauration, produits du terroir, dégustation de vins, bouquinistes, etc.)[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située sur l'Esplanade Charles-de-Gaulle, elle présente entre juillet et août une centaine de stands d'artisans d'art et des stands festifs et culturels (restauration, produits du terroir, dégustation de vins, bouquinistes, etc.),.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Animation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En nocturne, des animations musicales et des concerts sont donnés aux abords du palais des congrès Le Corum[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En nocturne, des animations musicales et des concerts sont donnés aux abords du palais des congrès Le Corum.
 </t>
         </is>
       </c>
